--- a/tspi/ciclo-3/plan3-20105914.xlsx
+++ b/tspi/ciclo-3/plan3-20105914.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\pucmm\isc-434-t\ppr\tspi\ciclo-3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="logt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -84,25 +89,10 @@
     <t>Definir la estrategía de desarrolo del ciclo #3 de TSPi.</t>
   </si>
   <si>
-    <t>Elaborar el plan del ciclo #3 de TSPi.</t>
-  </si>
-  <si>
-    <t>Completar el mockup de la vista de calendarización.</t>
-  </si>
-  <si>
     <t>Elaborar el mockup de la vista para la asignación de la disponibilidad de los recursos.</t>
   </si>
   <si>
     <t>Elaborar el mockup de la vista para ver la calendarización de uno o más recursos.</t>
-  </si>
-  <si>
-    <t>Elaborar el pseudocódigo del algoritmo de calendarización.</t>
-  </si>
-  <si>
-    <t>Elaborar el algoritmo de construcción del grafo a partir del archivo csv.</t>
-  </si>
-  <si>
-    <t>Configurar el repositorio global de la aplicación.</t>
   </si>
   <si>
     <t>Crear la agenda para la reunión #4 con el cliente.</t>
@@ -111,18 +101,126 @@
     <t>Reunión #4 con el cliente.</t>
   </si>
   <si>
-    <t>Configurar el repositorio local de la aplicación.</t>
+    <t>Cada miembro del equipo completó la forma INFO. El equipo llego a un acuerdo con los goles del ciclo 1 y la fecha en que serán entregados los reportes semanales.</t>
+  </si>
+  <si>
+    <t>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #1. El equipo definió actualizó el diseño conceptual del proyecto y completó la forma STRAT. El equipo actualizó el documento los riesgos y problemas.</t>
+  </si>
+  <si>
+    <t>Se completaron las formas TASK y SCHEDULE para el equipo y cada miembro de este. El equipo completo las formas SUMP, SUMQ y SUMS.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista para la creación de un proyecto.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista para la asignación de la disponibilidad de los recursos.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista para ver la calendarización de uno o más recursos.</t>
+  </si>
+  <si>
+    <t>Se creó la agenda para la reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la minuta de la reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista para ver los eventos o excepciones de los recursos.</t>
+  </si>
+  <si>
+    <t>Se documentó el tiempo de corrida del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Se elaboró el pseudocódigo del algoritmo de construcción de la estructura de calendarización a partir del archivo CSV.</t>
+  </si>
+  <si>
+    <t>Se elaboró una guía con todos los pasos para la configuración del ambiente global de desarrollo.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo configuró su ambiente local de desarrollo.</t>
+  </si>
+  <si>
+    <t>Se elaboró la versión final del diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Se elaboró la versión final del modelo físico de data.</t>
+  </si>
+  <si>
+    <t>Se elaboró la versión final del diagrama de contexto de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Se creó la versión final del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se creó la agenda para la reunión #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la minuta de la reunión #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</t>
+  </si>
+  <si>
+    <t>Realizar el lanzamiento del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Definir la estrategía de desarrolo del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Elaborar el plan del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Elaborar el mokcup de la vista para la creación de un proyecto.</t>
+  </si>
+  <si>
+    <t>Elaborar el mockup de la vista para ver los eventos o excepciones de los recursos.</t>
+  </si>
+  <si>
+    <t>Calcular el tiempo de corrida del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el pseudocódigo del algoritmo de construcción de la estructura de calendarización a partir del archivo CSV.</t>
+  </si>
+  <si>
+    <t>Configurar el ambiente global de desarrollo.</t>
+  </si>
+  <si>
+    <t>Configurar el ambiente local de desarrollo.</t>
+  </si>
+  <si>
+    <t>Elaborar el plan de calidad.</t>
+  </si>
+  <si>
+    <t>Elaborar la versión final del diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar la versión final del modelo físico de data.</t>
+  </si>
+  <si>
+    <t>Elaborar la versión final del diagrama de contexto de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Crear la versión final del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Crear la agenda para la reunión #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Reunión #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Elaborar el reporte de cierre del ciclo #3.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -348,11 +446,19 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -394,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,9 +532,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,6 +567,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -635,14 +743,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="7" customWidth="1"/>
@@ -654,7 +762,7 @@
     <col min="1014" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75">
+    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,18 +798,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013" ht="25.5">
-      <c r="A2" s="8">
+    <row r="2" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>46</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E2" s="10">
         <v>5</v>
@@ -1727,18 +1835,18 @@
       <c r="ALX2" s="4"/>
       <c r="ALY2" s="4"/>
     </row>
-    <row r="3" spans="1:1013" ht="25.5">
-      <c r="A3" s="8">
+    <row r="3" spans="1:1013" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="10">
         <v>5</v>
@@ -2764,18 +2872,18 @@
       <c r="ALX3" s="4"/>
       <c r="ALY3" s="4"/>
     </row>
-    <row r="4" spans="1:1013">
-      <c r="A4" s="8">
+    <row r="4" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>48</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="10">
         <v>2</v>
@@ -3801,18 +3909,18 @@
       <c r="ALX4" s="4"/>
       <c r="ALY4" s="4"/>
     </row>
-    <row r="5" spans="1:1013" ht="25.5">
-      <c r="A5" s="8">
+    <row r="5" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>49</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="10">
         <v>2</v>
@@ -3825,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
         <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -4838,21 +4946,21 @@
       <c r="ALX5" s="4"/>
       <c r="ALY5" s="4"/>
     </row>
-    <row r="6" spans="1:1013" ht="38.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>50</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E6" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="11">
         <v>6</v>
@@ -4862,10 +4970,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
         <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -5875,37 +5983,37 @@
       <c r="ALX6" s="4"/>
       <c r="ALY6" s="4"/>
     </row>
-    <row r="7" spans="1:1013" ht="25.5">
-      <c r="A7" s="8">
+    <row r="7" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>51</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="11">
         <v>6</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
@@ -6912,21 +7020,21 @@
       <c r="ALX7" s="4"/>
       <c r="ALY7" s="4"/>
     </row>
-    <row r="8" spans="1:1013" ht="25.5">
-      <c r="A8" s="8">
+    <row r="8" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="10">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="11">
         <v>6</v>
@@ -6939,13 +7047,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="4">
         <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1.5</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -7949,28 +8057,28 @@
       <c r="ALX8" s="4"/>
       <c r="ALY8" s="4"/>
     </row>
-    <row r="9" spans="1:1013" ht="25.5">
-      <c r="A9" s="8">
+    <row r="9" spans="1:1013" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>53</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="11">
         <v>6</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -7979,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -8986,21 +9094,21 @@
       <c r="ALX9" s="4"/>
       <c r="ALY9" s="4"/>
     </row>
-    <row r="10" spans="1:1013" ht="25.5">
-      <c r="A10" s="8">
+    <row r="10" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>54</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="11">
         <v>6</v>
@@ -9010,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
@@ -9019,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -10023,28 +10131,28 @@
       <c r="ALX10" s="4"/>
       <c r="ALY10" s="4"/>
     </row>
-    <row r="11" spans="1:1013" ht="25.5">
-      <c r="A11" s="8">
+    <row r="11" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>55</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="11">
         <v>6</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -10053,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
         <v>0</v>
@@ -11060,21 +11168,21 @@
       <c r="ALX11" s="4"/>
       <c r="ALY11" s="4"/>
     </row>
-    <row r="12" spans="1:1013">
-      <c r="A12" s="8">
+    <row r="12" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>56</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="11">
         <v>6</v>
@@ -11084,13 +11192,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="4">
         <v>0</v>
@@ -12097,40 +12205,40 @@
       <c r="ALX12" s="4"/>
       <c r="ALY12" s="4"/>
     </row>
-    <row r="13" spans="1:1013" ht="25.5">
-      <c r="A13" s="8">
+    <row r="13" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>57</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -13134,19 +13242,41 @@
       <c r="ALX13" s="4"/>
       <c r="ALY13" s="4"/>
     </row>
-    <row r="14" spans="1:1013">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+    <row r="14" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>58</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="F14" s="11">
+        <v>7</v>
+      </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="H14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1.5</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -14149,19 +14279,41 @@
       <c r="ALX14" s="4"/>
       <c r="ALY14" s="4"/>
     </row>
-    <row r="15" spans="1:1013">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
+    <row r="15" spans="1:1013" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" s="11">
+        <v>7</v>
+      </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -15164,19 +15316,41 @@
       <c r="ALX15" s="4"/>
       <c r="ALY15" s="4"/>
     </row>
-    <row r="16" spans="1:1013">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
+    <row r="16" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>60</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>7</v>
+      </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -16179,19 +16353,41 @@
       <c r="ALX16" s="4"/>
       <c r="ALY16" s="4"/>
     </row>
-    <row r="17" spans="1:1013">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
+    <row r="17" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>61</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11">
+        <v>7</v>
+      </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -17194,72 +17390,182 @@
       <c r="ALX17" s="4"/>
       <c r="ALY17" s="4"/>
     </row>
-    <row r="18" spans="1:1013">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+    <row r="18" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>62</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3</v>
+      </c>
+      <c r="F18" s="11">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:1013">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+    <row r="19" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>63</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="10">
+        <v>9</v>
+      </c>
+      <c r="F19" s="11">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:1013">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+    <row r="20" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>64</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="11">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:1013">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+    <row r="21" spans="1:1013" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>65</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:1013">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+    <row r="22" spans="1:1013" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>66</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="10">
+        <v>5</v>
+      </c>
+      <c r="F22" s="11">
+        <v>7</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:1013">
+    <row r="23" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -17283,14 +17589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.140625" style="5"/>
@@ -17298,7 +17604,7 @@
     <col min="1025" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17309,7 +17615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>46</v>
       </c>
@@ -17321,7 +17627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>47</v>
       </c>
@@ -17333,72 +17639,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" s="12" customFormat="1">
+    <row r="5" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1">
+    <row r="8" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="4"/>
       <c r="C8" s="31"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -17414,14 +17720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="21" customWidth="1"/>
@@ -17433,7 +17739,7 @@
     <col min="9" max="16384" width="11.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -17459,7 +17765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>41938</v>
       </c>
@@ -17486,7 +17792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>41938</v>
       </c>
@@ -17513,7 +17819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1">
+    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="21"/>
       <c r="C5" s="25"/>
@@ -17523,25 +17829,25 @@
       <c r="G5" s="26"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="17"/>
@@ -17549,7 +17855,7 @@
       <c r="E9" s="22"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="30"/>
       <c r="C10" s="17"/>
@@ -17558,7 +17864,7 @@
       <c r="F10" s="18"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
       <c r="B11" s="30"/>
       <c r="C11" s="17"/>
@@ -17566,7 +17872,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="28"/>
       <c r="B12" s="30"/>
       <c r="C12" s="17"/>
@@ -17574,7 +17880,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="22"/>
       <c r="C13" s="17"/>
@@ -17582,7 +17888,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="22"/>
       <c r="C14" s="17"/>
@@ -17590,7 +17896,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="22"/>
       <c r="C15" s="17"/>
@@ -17598,7 +17904,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="22"/>
       <c r="C16" s="17"/>
@@ -17606,7 +17912,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1">
+    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
@@ -17616,7 +17922,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="22"/>
       <c r="C20" s="17"/>
@@ -17624,7 +17930,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="22"/>
       <c r="C21" s="17"/>
@@ -17632,7 +17938,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="22"/>
       <c r="C22" s="17"/>
@@ -17640,7 +17946,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="22"/>
       <c r="C23" s="17"/>
@@ -17648,7 +17954,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="22"/>
       <c r="C24" s="17"/>
@@ -17656,7 +17962,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="22"/>
       <c r="C25" s="17"/>
@@ -17664,7 +17970,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="22"/>
       <c r="C26" s="17"/>
@@ -17672,7 +17978,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="22"/>
       <c r="C27" s="17"/>
@@ -17680,7 +17986,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="22"/>
       <c r="C28" s="17"/>
@@ -17688,7 +17994,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="22"/>
       <c r="C29" s="17"/>
@@ -17696,7 +18002,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="22"/>
       <c r="C30" s="17"/>
@@ -17704,7 +18010,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="22"/>
       <c r="C31" s="17"/>
@@ -17712,7 +18018,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="22"/>
       <c r="C32" s="17"/>
@@ -17720,7 +18026,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="22"/>
       <c r="C33" s="17"/>
@@ -17728,7 +18034,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="22"/>
       <c r="C34" s="17"/>
@@ -17736,7 +18042,7 @@
       <c r="E34" s="22"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="22"/>
       <c r="C35" s="17"/>

--- a/tspi/ciclo-3/plan3-20105914.xlsx
+++ b/tspi/ciclo-3/plan3-20105914.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\pucmm\isc-434-t\ppr\tspi\ciclo-3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="33520" windowHeight="20540" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="logt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -142,6 +142,24 @@
   <si>
     <t>Elaborar el reporte de cierre del ciclo #3.</t>
   </si>
+  <si>
+    <t>Configurar el ambiente global de desarrollo.</t>
+  </si>
+  <si>
+    <t>Se elaboró una guía con todos los pasos para la configuración del ambiente global de desarrollo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version final del Physical Data Model </t>
+  </si>
+  <si>
+    <t>Setear ambiente de desarrollo global + Cambios en Physical Data Model</t>
+  </si>
+  <si>
+    <t>Crear ambiente de desarrollo local</t>
+  </si>
+  <si>
+    <t>Terminar de definir estrategia de desarrollo</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +169,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -179,6 +197,22 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -211,22 +245,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -304,7 +342,11 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,7 +473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,7 +508,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,25 +717,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALY11"/>
+  <dimension ref="A1:ALY12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" style="7" customWidth="1"/>
     <col min="3" max="4" width="46" style="7" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" style="6" customWidth="1"/>
-    <col min="8" max="12" width="15.7109375" style="6" customWidth="1"/>
-    <col min="13" max="1013" width="11.42578125" style="6"/>
-    <col min="1014" max="16384" width="11.42578125" style="5"/>
+    <col min="5" max="6" width="15.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="6" customWidth="1"/>
+    <col min="8" max="12" width="15.6640625" style="6" customWidth="1"/>
+    <col min="13" max="1013" width="11.5" style="6"/>
+    <col min="1014" max="16384" width="11.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1013" s="3" customFormat="1" ht="26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1013" ht="36">
       <c r="A2" s="4">
         <v>46</v>
       </c>
@@ -1766,7 +1808,7 @@
       <c r="ALX2" s="4"/>
       <c r="ALY2" s="4"/>
     </row>
-    <row r="3" spans="1:1013" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1013" ht="48">
       <c r="A3" s="4">
         <v>47</v>
       </c>
@@ -2803,7 +2845,7 @@
       <c r="ALX3" s="4"/>
       <c r="ALY3" s="4"/>
     </row>
-    <row r="4" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1013">
       <c r="A4" s="4">
         <v>53</v>
       </c>
@@ -3840,7 +3882,7 @@
       <c r="ALX4" s="4"/>
       <c r="ALY4" s="4"/>
     </row>
-    <row r="5" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1013" ht="24">
       <c r="A5" s="4">
         <v>55</v>
       </c>
@@ -4877,40 +4919,40 @@
       <c r="ALX5" s="4"/>
       <c r="ALY5" s="4"/>
     </row>
-    <row r="6" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1013" ht="24">
       <c r="A6" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E6" s="10">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -5914,40 +5956,40 @@
       <c r="ALX6" s="4"/>
       <c r="ALY6" s="4"/>
     </row>
-    <row r="7" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1013" ht="24">
       <c r="A7" s="4">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="F7" s="11">
         <v>7</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J7" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -6951,91 +6993,1093 @@
       <c r="ALX7" s="4"/>
       <c r="ALY7" s="4"/>
     </row>
-    <row r="8" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1013" ht="24">
       <c r="A8" s="4">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F8" s="11">
         <v>7</v>
       </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+      <c r="BL8" s="4"/>
+      <c r="BM8" s="4"/>
+      <c r="BN8" s="4"/>
+      <c r="BO8" s="4"/>
+      <c r="BP8" s="4"/>
+      <c r="BQ8" s="4"/>
+      <c r="BR8" s="4"/>
+      <c r="BS8" s="4"/>
+      <c r="BT8" s="4"/>
+      <c r="BU8" s="4"/>
+      <c r="BV8" s="4"/>
+      <c r="BW8" s="4"/>
+      <c r="BX8" s="4"/>
+      <c r="BY8" s="4"/>
+      <c r="BZ8" s="4"/>
+      <c r="CA8" s="4"/>
+      <c r="CB8" s="4"/>
+      <c r="CC8" s="4"/>
+      <c r="CD8" s="4"/>
+      <c r="CE8" s="4"/>
+      <c r="CF8" s="4"/>
+      <c r="CG8" s="4"/>
+      <c r="CH8" s="4"/>
+      <c r="CI8" s="4"/>
+      <c r="CJ8" s="4"/>
+      <c r="CK8" s="4"/>
+      <c r="CL8" s="4"/>
+      <c r="CM8" s="4"/>
+      <c r="CN8" s="4"/>
+      <c r="CO8" s="4"/>
+      <c r="CP8" s="4"/>
+      <c r="CQ8" s="4"/>
+      <c r="CR8" s="4"/>
+      <c r="CS8" s="4"/>
+      <c r="CT8" s="4"/>
+      <c r="CU8" s="4"/>
+      <c r="CV8" s="4"/>
+      <c r="CW8" s="4"/>
+      <c r="CX8" s="4"/>
+      <c r="CY8" s="4"/>
+      <c r="CZ8" s="4"/>
+      <c r="DA8" s="4"/>
+      <c r="DB8" s="4"/>
+      <c r="DC8" s="4"/>
+      <c r="DD8" s="4"/>
+      <c r="DE8" s="4"/>
+      <c r="DF8" s="4"/>
+      <c r="DG8" s="4"/>
+      <c r="DH8" s="4"/>
+      <c r="DI8" s="4"/>
+      <c r="DJ8" s="4"/>
+      <c r="DK8" s="4"/>
+      <c r="DL8" s="4"/>
+      <c r="DM8" s="4"/>
+      <c r="DN8" s="4"/>
+      <c r="DO8" s="4"/>
+      <c r="DP8" s="4"/>
+      <c r="DQ8" s="4"/>
+      <c r="DR8" s="4"/>
+      <c r="DS8" s="4"/>
+      <c r="DT8" s="4"/>
+      <c r="DU8" s="4"/>
+      <c r="DV8" s="4"/>
+      <c r="DW8" s="4"/>
+      <c r="DX8" s="4"/>
+      <c r="DY8" s="4"/>
+      <c r="DZ8" s="4"/>
+      <c r="EA8" s="4"/>
+      <c r="EB8" s="4"/>
+      <c r="EC8" s="4"/>
+      <c r="ED8" s="4"/>
+      <c r="EE8" s="4"/>
+      <c r="EF8" s="4"/>
+      <c r="EG8" s="4"/>
+      <c r="EH8" s="4"/>
+      <c r="EI8" s="4"/>
+      <c r="EJ8" s="4"/>
+      <c r="EK8" s="4"/>
+      <c r="EL8" s="4"/>
+      <c r="EM8" s="4"/>
+      <c r="EN8" s="4"/>
+      <c r="EO8" s="4"/>
+      <c r="EP8" s="4"/>
+      <c r="EQ8" s="4"/>
+      <c r="ER8" s="4"/>
+      <c r="ES8" s="4"/>
+      <c r="ET8" s="4"/>
+      <c r="EU8" s="4"/>
+      <c r="EV8" s="4"/>
+      <c r="EW8" s="4"/>
+      <c r="EX8" s="4"/>
+      <c r="EY8" s="4"/>
+      <c r="EZ8" s="4"/>
+      <c r="FA8" s="4"/>
+      <c r="FB8" s="4"/>
+      <c r="FC8" s="4"/>
+      <c r="FD8" s="4"/>
+      <c r="FE8" s="4"/>
+      <c r="FF8" s="4"/>
+      <c r="FG8" s="4"/>
+      <c r="FH8" s="4"/>
+      <c r="FI8" s="4"/>
+      <c r="FJ8" s="4"/>
+      <c r="FK8" s="4"/>
+      <c r="FL8" s="4"/>
+      <c r="FM8" s="4"/>
+      <c r="FN8" s="4"/>
+      <c r="FO8" s="4"/>
+      <c r="FP8" s="4"/>
+      <c r="FQ8" s="4"/>
+      <c r="FR8" s="4"/>
+      <c r="FS8" s="4"/>
+      <c r="FT8" s="4"/>
+      <c r="FU8" s="4"/>
+      <c r="FV8" s="4"/>
+      <c r="FW8" s="4"/>
+      <c r="FX8" s="4"/>
+      <c r="FY8" s="4"/>
+      <c r="FZ8" s="4"/>
+      <c r="GA8" s="4"/>
+      <c r="GB8" s="4"/>
+      <c r="GC8" s="4"/>
+      <c r="GD8" s="4"/>
+      <c r="GE8" s="4"/>
+      <c r="GF8" s="4"/>
+      <c r="GG8" s="4"/>
+      <c r="GH8" s="4"/>
+      <c r="GI8" s="4"/>
+      <c r="GJ8" s="4"/>
+      <c r="GK8" s="4"/>
+      <c r="GL8" s="4"/>
+      <c r="GM8" s="4"/>
+      <c r="GN8" s="4"/>
+      <c r="GO8" s="4"/>
+      <c r="GP8" s="4"/>
+      <c r="GQ8" s="4"/>
+      <c r="GR8" s="4"/>
+      <c r="GS8" s="4"/>
+      <c r="GT8" s="4"/>
+      <c r="GU8" s="4"/>
+      <c r="GV8" s="4"/>
+      <c r="GW8" s="4"/>
+      <c r="GX8" s="4"/>
+      <c r="GY8" s="4"/>
+      <c r="GZ8" s="4"/>
+      <c r="HA8" s="4"/>
+      <c r="HB8" s="4"/>
+      <c r="HC8" s="4"/>
+      <c r="HD8" s="4"/>
+      <c r="HE8" s="4"/>
+      <c r="HF8" s="4"/>
+      <c r="HG8" s="4"/>
+      <c r="HH8" s="4"/>
+      <c r="HI8" s="4"/>
+      <c r="HJ8" s="4"/>
+      <c r="HK8" s="4"/>
+      <c r="HL8" s="4"/>
+      <c r="HM8" s="4"/>
+      <c r="HN8" s="4"/>
+      <c r="HO8" s="4"/>
+      <c r="HP8" s="4"/>
+      <c r="HQ8" s="4"/>
+      <c r="HR8" s="4"/>
+      <c r="HS8" s="4"/>
+      <c r="HT8" s="4"/>
+      <c r="HU8" s="4"/>
+      <c r="HV8" s="4"/>
+      <c r="HW8" s="4"/>
+      <c r="HX8" s="4"/>
+      <c r="HY8" s="4"/>
+      <c r="HZ8" s="4"/>
+      <c r="IA8" s="4"/>
+      <c r="IB8" s="4"/>
+      <c r="IC8" s="4"/>
+      <c r="ID8" s="4"/>
+      <c r="IE8" s="4"/>
+      <c r="IF8" s="4"/>
+      <c r="IG8" s="4"/>
+      <c r="IH8" s="4"/>
+      <c r="II8" s="4"/>
+      <c r="IJ8" s="4"/>
+      <c r="IK8" s="4"/>
+      <c r="IL8" s="4"/>
+      <c r="IM8" s="4"/>
+      <c r="IN8" s="4"/>
+      <c r="IO8" s="4"/>
+      <c r="IP8" s="4"/>
+      <c r="IQ8" s="4"/>
+      <c r="IR8" s="4"/>
+      <c r="IS8" s="4"/>
+      <c r="IT8" s="4"/>
+      <c r="IU8" s="4"/>
+      <c r="IV8" s="4"/>
+      <c r="IW8" s="4"/>
+      <c r="IX8" s="4"/>
+      <c r="IY8" s="4"/>
+      <c r="IZ8" s="4"/>
+      <c r="JA8" s="4"/>
+      <c r="JB8" s="4"/>
+      <c r="JC8" s="4"/>
+      <c r="JD8" s="4"/>
+      <c r="JE8" s="4"/>
+      <c r="JF8" s="4"/>
+      <c r="JG8" s="4"/>
+      <c r="JH8" s="4"/>
+      <c r="JI8" s="4"/>
+      <c r="JJ8" s="4"/>
+      <c r="JK8" s="4"/>
+      <c r="JL8" s="4"/>
+      <c r="JM8" s="4"/>
+      <c r="JN8" s="4"/>
+      <c r="JO8" s="4"/>
+      <c r="JP8" s="4"/>
+      <c r="JQ8" s="4"/>
+      <c r="JR8" s="4"/>
+      <c r="JS8" s="4"/>
+      <c r="JT8" s="4"/>
+      <c r="JU8" s="4"/>
+      <c r="JV8" s="4"/>
+      <c r="JW8" s="4"/>
+      <c r="JX8" s="4"/>
+      <c r="JY8" s="4"/>
+      <c r="JZ8" s="4"/>
+      <c r="KA8" s="4"/>
+      <c r="KB8" s="4"/>
+      <c r="KC8" s="4"/>
+      <c r="KD8" s="4"/>
+      <c r="KE8" s="4"/>
+      <c r="KF8" s="4"/>
+      <c r="KG8" s="4"/>
+      <c r="KH8" s="4"/>
+      <c r="KI8" s="4"/>
+      <c r="KJ8" s="4"/>
+      <c r="KK8" s="4"/>
+      <c r="KL8" s="4"/>
+      <c r="KM8" s="4"/>
+      <c r="KN8" s="4"/>
+      <c r="KO8" s="4"/>
+      <c r="KP8" s="4"/>
+      <c r="KQ8" s="4"/>
+      <c r="KR8" s="4"/>
+      <c r="KS8" s="4"/>
+      <c r="KT8" s="4"/>
+      <c r="KU8" s="4"/>
+      <c r="KV8" s="4"/>
+      <c r="KW8" s="4"/>
+      <c r="KX8" s="4"/>
+      <c r="KY8" s="4"/>
+      <c r="KZ8" s="4"/>
+      <c r="LA8" s="4"/>
+      <c r="LB8" s="4"/>
+      <c r="LC8" s="4"/>
+      <c r="LD8" s="4"/>
+      <c r="LE8" s="4"/>
+      <c r="LF8" s="4"/>
+      <c r="LG8" s="4"/>
+      <c r="LH8" s="4"/>
+      <c r="LI8" s="4"/>
+      <c r="LJ8" s="4"/>
+      <c r="LK8" s="4"/>
+      <c r="LL8" s="4"/>
+      <c r="LM8" s="4"/>
+      <c r="LN8" s="4"/>
+      <c r="LO8" s="4"/>
+      <c r="LP8" s="4"/>
+      <c r="LQ8" s="4"/>
+      <c r="LR8" s="4"/>
+      <c r="LS8" s="4"/>
+      <c r="LT8" s="4"/>
+      <c r="LU8" s="4"/>
+      <c r="LV8" s="4"/>
+      <c r="LW8" s="4"/>
+      <c r="LX8" s="4"/>
+      <c r="LY8" s="4"/>
+      <c r="LZ8" s="4"/>
+      <c r="MA8" s="4"/>
+      <c r="MB8" s="4"/>
+      <c r="MC8" s="4"/>
+      <c r="MD8" s="4"/>
+      <c r="ME8" s="4"/>
+      <c r="MF8" s="4"/>
+      <c r="MG8" s="4"/>
+      <c r="MH8" s="4"/>
+      <c r="MI8" s="4"/>
+      <c r="MJ8" s="4"/>
+      <c r="MK8" s="4"/>
+      <c r="ML8" s="4"/>
+      <c r="MM8" s="4"/>
+      <c r="MN8" s="4"/>
+      <c r="MO8" s="4"/>
+      <c r="MP8" s="4"/>
+      <c r="MQ8" s="4"/>
+      <c r="MR8" s="4"/>
+      <c r="MS8" s="4"/>
+      <c r="MT8" s="4"/>
+      <c r="MU8" s="4"/>
+      <c r="MV8" s="4"/>
+      <c r="MW8" s="4"/>
+      <c r="MX8" s="4"/>
+      <c r="MY8" s="4"/>
+      <c r="MZ8" s="4"/>
+      <c r="NA8" s="4"/>
+      <c r="NB8" s="4"/>
+      <c r="NC8" s="4"/>
+      <c r="ND8" s="4"/>
+      <c r="NE8" s="4"/>
+      <c r="NF8" s="4"/>
+      <c r="NG8" s="4"/>
+      <c r="NH8" s="4"/>
+      <c r="NI8" s="4"/>
+      <c r="NJ8" s="4"/>
+      <c r="NK8" s="4"/>
+      <c r="NL8" s="4"/>
+      <c r="NM8" s="4"/>
+      <c r="NN8" s="4"/>
+      <c r="NO8" s="4"/>
+      <c r="NP8" s="4"/>
+      <c r="NQ8" s="4"/>
+      <c r="NR8" s="4"/>
+      <c r="NS8" s="4"/>
+      <c r="NT8" s="4"/>
+      <c r="NU8" s="4"/>
+      <c r="NV8" s="4"/>
+      <c r="NW8" s="4"/>
+      <c r="NX8" s="4"/>
+      <c r="NY8" s="4"/>
+      <c r="NZ8" s="4"/>
+      <c r="OA8" s="4"/>
+      <c r="OB8" s="4"/>
+      <c r="OC8" s="4"/>
+      <c r="OD8" s="4"/>
+      <c r="OE8" s="4"/>
+      <c r="OF8" s="4"/>
+      <c r="OG8" s="4"/>
+      <c r="OH8" s="4"/>
+      <c r="OI8" s="4"/>
+      <c r="OJ8" s="4"/>
+      <c r="OK8" s="4"/>
+      <c r="OL8" s="4"/>
+      <c r="OM8" s="4"/>
+      <c r="ON8" s="4"/>
+      <c r="OO8" s="4"/>
+      <c r="OP8" s="4"/>
+      <c r="OQ8" s="4"/>
+      <c r="OR8" s="4"/>
+      <c r="OS8" s="4"/>
+      <c r="OT8" s="4"/>
+      <c r="OU8" s="4"/>
+      <c r="OV8" s="4"/>
+      <c r="OW8" s="4"/>
+      <c r="OX8" s="4"/>
+      <c r="OY8" s="4"/>
+      <c r="OZ8" s="4"/>
+      <c r="PA8" s="4"/>
+      <c r="PB8" s="4"/>
+      <c r="PC8" s="4"/>
+      <c r="PD8" s="4"/>
+      <c r="PE8" s="4"/>
+      <c r="PF8" s="4"/>
+      <c r="PG8" s="4"/>
+      <c r="PH8" s="4"/>
+      <c r="PI8" s="4"/>
+      <c r="PJ8" s="4"/>
+      <c r="PK8" s="4"/>
+      <c r="PL8" s="4"/>
+      <c r="PM8" s="4"/>
+      <c r="PN8" s="4"/>
+      <c r="PO8" s="4"/>
+      <c r="PP8" s="4"/>
+      <c r="PQ8" s="4"/>
+      <c r="PR8" s="4"/>
+      <c r="PS8" s="4"/>
+      <c r="PT8" s="4"/>
+      <c r="PU8" s="4"/>
+      <c r="PV8" s="4"/>
+      <c r="PW8" s="4"/>
+      <c r="PX8" s="4"/>
+      <c r="PY8" s="4"/>
+      <c r="PZ8" s="4"/>
+      <c r="QA8" s="4"/>
+      <c r="QB8" s="4"/>
+      <c r="QC8" s="4"/>
+      <c r="QD8" s="4"/>
+      <c r="QE8" s="4"/>
+      <c r="QF8" s="4"/>
+      <c r="QG8" s="4"/>
+      <c r="QH8" s="4"/>
+      <c r="QI8" s="4"/>
+      <c r="QJ8" s="4"/>
+      <c r="QK8" s="4"/>
+      <c r="QL8" s="4"/>
+      <c r="QM8" s="4"/>
+      <c r="QN8" s="4"/>
+      <c r="QO8" s="4"/>
+      <c r="QP8" s="4"/>
+      <c r="QQ8" s="4"/>
+      <c r="QR8" s="4"/>
+      <c r="QS8" s="4"/>
+      <c r="QT8" s="4"/>
+      <c r="QU8" s="4"/>
+      <c r="QV8" s="4"/>
+      <c r="QW8" s="4"/>
+      <c r="QX8" s="4"/>
+      <c r="QY8" s="4"/>
+      <c r="QZ8" s="4"/>
+      <c r="RA8" s="4"/>
+      <c r="RB8" s="4"/>
+      <c r="RC8" s="4"/>
+      <c r="RD8" s="4"/>
+      <c r="RE8" s="4"/>
+      <c r="RF8" s="4"/>
+      <c r="RG8" s="4"/>
+      <c r="RH8" s="4"/>
+      <c r="RI8" s="4"/>
+      <c r="RJ8" s="4"/>
+      <c r="RK8" s="4"/>
+      <c r="RL8" s="4"/>
+      <c r="RM8" s="4"/>
+      <c r="RN8" s="4"/>
+      <c r="RO8" s="4"/>
+      <c r="RP8" s="4"/>
+      <c r="RQ8" s="4"/>
+      <c r="RR8" s="4"/>
+      <c r="RS8" s="4"/>
+      <c r="RT8" s="4"/>
+      <c r="RU8" s="4"/>
+      <c r="RV8" s="4"/>
+      <c r="RW8" s="4"/>
+      <c r="RX8" s="4"/>
+      <c r="RY8" s="4"/>
+      <c r="RZ8" s="4"/>
+      <c r="SA8" s="4"/>
+      <c r="SB8" s="4"/>
+      <c r="SC8" s="4"/>
+      <c r="SD8" s="4"/>
+      <c r="SE8" s="4"/>
+      <c r="SF8" s="4"/>
+      <c r="SG8" s="4"/>
+      <c r="SH8" s="4"/>
+      <c r="SI8" s="4"/>
+      <c r="SJ8" s="4"/>
+      <c r="SK8" s="4"/>
+      <c r="SL8" s="4"/>
+      <c r="SM8" s="4"/>
+      <c r="SN8" s="4"/>
+      <c r="SO8" s="4"/>
+      <c r="SP8" s="4"/>
+      <c r="SQ8" s="4"/>
+      <c r="SR8" s="4"/>
+      <c r="SS8" s="4"/>
+      <c r="ST8" s="4"/>
+      <c r="SU8" s="4"/>
+      <c r="SV8" s="4"/>
+      <c r="SW8" s="4"/>
+      <c r="SX8" s="4"/>
+      <c r="SY8" s="4"/>
+      <c r="SZ8" s="4"/>
+      <c r="TA8" s="4"/>
+      <c r="TB8" s="4"/>
+      <c r="TC8" s="4"/>
+      <c r="TD8" s="4"/>
+      <c r="TE8" s="4"/>
+      <c r="TF8" s="4"/>
+      <c r="TG8" s="4"/>
+      <c r="TH8" s="4"/>
+      <c r="TI8" s="4"/>
+      <c r="TJ8" s="4"/>
+      <c r="TK8" s="4"/>
+      <c r="TL8" s="4"/>
+      <c r="TM8" s="4"/>
+      <c r="TN8" s="4"/>
+      <c r="TO8" s="4"/>
+      <c r="TP8" s="4"/>
+      <c r="TQ8" s="4"/>
+      <c r="TR8" s="4"/>
+      <c r="TS8" s="4"/>
+      <c r="TT8" s="4"/>
+      <c r="TU8" s="4"/>
+      <c r="TV8" s="4"/>
+      <c r="TW8" s="4"/>
+      <c r="TX8" s="4"/>
+      <c r="TY8" s="4"/>
+      <c r="TZ8" s="4"/>
+      <c r="UA8" s="4"/>
+      <c r="UB8" s="4"/>
+      <c r="UC8" s="4"/>
+      <c r="UD8" s="4"/>
+      <c r="UE8" s="4"/>
+      <c r="UF8" s="4"/>
+      <c r="UG8" s="4"/>
+      <c r="UH8" s="4"/>
+      <c r="UI8" s="4"/>
+      <c r="UJ8" s="4"/>
+      <c r="UK8" s="4"/>
+      <c r="UL8" s="4"/>
+      <c r="UM8" s="4"/>
+      <c r="UN8" s="4"/>
+      <c r="UO8" s="4"/>
+      <c r="UP8" s="4"/>
+      <c r="UQ8" s="4"/>
+      <c r="UR8" s="4"/>
+      <c r="US8" s="4"/>
+      <c r="UT8" s="4"/>
+      <c r="UU8" s="4"/>
+      <c r="UV8" s="4"/>
+      <c r="UW8" s="4"/>
+      <c r="UX8" s="4"/>
+      <c r="UY8" s="4"/>
+      <c r="UZ8" s="4"/>
+      <c r="VA8" s="4"/>
+      <c r="VB8" s="4"/>
+      <c r="VC8" s="4"/>
+      <c r="VD8" s="4"/>
+      <c r="VE8" s="4"/>
+      <c r="VF8" s="4"/>
+      <c r="VG8" s="4"/>
+      <c r="VH8" s="4"/>
+      <c r="VI8" s="4"/>
+      <c r="VJ8" s="4"/>
+      <c r="VK8" s="4"/>
+      <c r="VL8" s="4"/>
+      <c r="VM8" s="4"/>
+      <c r="VN8" s="4"/>
+      <c r="VO8" s="4"/>
+      <c r="VP8" s="4"/>
+      <c r="VQ8" s="4"/>
+      <c r="VR8" s="4"/>
+      <c r="VS8" s="4"/>
+      <c r="VT8" s="4"/>
+      <c r="VU8" s="4"/>
+      <c r="VV8" s="4"/>
+      <c r="VW8" s="4"/>
+      <c r="VX8" s="4"/>
+      <c r="VY8" s="4"/>
+      <c r="VZ8" s="4"/>
+      <c r="WA8" s="4"/>
+      <c r="WB8" s="4"/>
+      <c r="WC8" s="4"/>
+      <c r="WD8" s="4"/>
+      <c r="WE8" s="4"/>
+      <c r="WF8" s="4"/>
+      <c r="WG8" s="4"/>
+      <c r="WH8" s="4"/>
+      <c r="WI8" s="4"/>
+      <c r="WJ8" s="4"/>
+      <c r="WK8" s="4"/>
+      <c r="WL8" s="4"/>
+      <c r="WM8" s="4"/>
+      <c r="WN8" s="4"/>
+      <c r="WO8" s="4"/>
+      <c r="WP8" s="4"/>
+      <c r="WQ8" s="4"/>
+      <c r="WR8" s="4"/>
+      <c r="WS8" s="4"/>
+      <c r="WT8" s="4"/>
+      <c r="WU8" s="4"/>
+      <c r="WV8" s="4"/>
+      <c r="WW8" s="4"/>
+      <c r="WX8" s="4"/>
+      <c r="WY8" s="4"/>
+      <c r="WZ8" s="4"/>
+      <c r="XA8" s="4"/>
+      <c r="XB8" s="4"/>
+      <c r="XC8" s="4"/>
+      <c r="XD8" s="4"/>
+      <c r="XE8" s="4"/>
+      <c r="XF8" s="4"/>
+      <c r="XG8" s="4"/>
+      <c r="XH8" s="4"/>
+      <c r="XI8" s="4"/>
+      <c r="XJ8" s="4"/>
+      <c r="XK8" s="4"/>
+      <c r="XL8" s="4"/>
+      <c r="XM8" s="4"/>
+      <c r="XN8" s="4"/>
+      <c r="XO8" s="4"/>
+      <c r="XP8" s="4"/>
+      <c r="XQ8" s="4"/>
+      <c r="XR8" s="4"/>
+      <c r="XS8" s="4"/>
+      <c r="XT8" s="4"/>
+      <c r="XU8" s="4"/>
+      <c r="XV8" s="4"/>
+      <c r="XW8" s="4"/>
+      <c r="XX8" s="4"/>
+      <c r="XY8" s="4"/>
+      <c r="XZ8" s="4"/>
+      <c r="YA8" s="4"/>
+      <c r="YB8" s="4"/>
+      <c r="YC8" s="4"/>
+      <c r="YD8" s="4"/>
+      <c r="YE8" s="4"/>
+      <c r="YF8" s="4"/>
+      <c r="YG8" s="4"/>
+      <c r="YH8" s="4"/>
+      <c r="YI8" s="4"/>
+      <c r="YJ8" s="4"/>
+      <c r="YK8" s="4"/>
+      <c r="YL8" s="4"/>
+      <c r="YM8" s="4"/>
+      <c r="YN8" s="4"/>
+      <c r="YO8" s="4"/>
+      <c r="YP8" s="4"/>
+      <c r="YQ8" s="4"/>
+      <c r="YR8" s="4"/>
+      <c r="YS8" s="4"/>
+      <c r="YT8" s="4"/>
+      <c r="YU8" s="4"/>
+      <c r="YV8" s="4"/>
+      <c r="YW8" s="4"/>
+      <c r="YX8" s="4"/>
+      <c r="YY8" s="4"/>
+      <c r="YZ8" s="4"/>
+      <c r="ZA8" s="4"/>
+      <c r="ZB8" s="4"/>
+      <c r="ZC8" s="4"/>
+      <c r="ZD8" s="4"/>
+      <c r="ZE8" s="4"/>
+      <c r="ZF8" s="4"/>
+      <c r="ZG8" s="4"/>
+      <c r="ZH8" s="4"/>
+      <c r="ZI8" s="4"/>
+      <c r="ZJ8" s="4"/>
+      <c r="ZK8" s="4"/>
+      <c r="ZL8" s="4"/>
+      <c r="ZM8" s="4"/>
+      <c r="ZN8" s="4"/>
+      <c r="ZO8" s="4"/>
+      <c r="ZP8" s="4"/>
+      <c r="ZQ8" s="4"/>
+      <c r="ZR8" s="4"/>
+      <c r="ZS8" s="4"/>
+      <c r="ZT8" s="4"/>
+      <c r="ZU8" s="4"/>
+      <c r="ZV8" s="4"/>
+      <c r="ZW8" s="4"/>
+      <c r="ZX8" s="4"/>
+      <c r="ZY8" s="4"/>
+      <c r="ZZ8" s="4"/>
+      <c r="AAA8" s="4"/>
+      <c r="AAB8" s="4"/>
+      <c r="AAC8" s="4"/>
+      <c r="AAD8" s="4"/>
+      <c r="AAE8" s="4"/>
+      <c r="AAF8" s="4"/>
+      <c r="AAG8" s="4"/>
+      <c r="AAH8" s="4"/>
+      <c r="AAI8" s="4"/>
+      <c r="AAJ8" s="4"/>
+      <c r="AAK8" s="4"/>
+      <c r="AAL8" s="4"/>
+      <c r="AAM8" s="4"/>
+      <c r="AAN8" s="4"/>
+      <c r="AAO8" s="4"/>
+      <c r="AAP8" s="4"/>
+      <c r="AAQ8" s="4"/>
+      <c r="AAR8" s="4"/>
+      <c r="AAS8" s="4"/>
+      <c r="AAT8" s="4"/>
+      <c r="AAU8" s="4"/>
+      <c r="AAV8" s="4"/>
+      <c r="AAW8" s="4"/>
+      <c r="AAX8" s="4"/>
+      <c r="AAY8" s="4"/>
+      <c r="AAZ8" s="4"/>
+      <c r="ABA8" s="4"/>
+      <c r="ABB8" s="4"/>
+      <c r="ABC8" s="4"/>
+      <c r="ABD8" s="4"/>
+      <c r="ABE8" s="4"/>
+      <c r="ABF8" s="4"/>
+      <c r="ABG8" s="4"/>
+      <c r="ABH8" s="4"/>
+      <c r="ABI8" s="4"/>
+      <c r="ABJ8" s="4"/>
+      <c r="ABK8" s="4"/>
+      <c r="ABL8" s="4"/>
+      <c r="ABM8" s="4"/>
+      <c r="ABN8" s="4"/>
+      <c r="ABO8" s="4"/>
+      <c r="ABP8" s="4"/>
+      <c r="ABQ8" s="4"/>
+      <c r="ABR8" s="4"/>
+      <c r="ABS8" s="4"/>
+      <c r="ABT8" s="4"/>
+      <c r="ABU8" s="4"/>
+      <c r="ABV8" s="4"/>
+      <c r="ABW8" s="4"/>
+      <c r="ABX8" s="4"/>
+      <c r="ABY8" s="4"/>
+      <c r="ABZ8" s="4"/>
+      <c r="ACA8" s="4"/>
+      <c r="ACB8" s="4"/>
+      <c r="ACC8" s="4"/>
+      <c r="ACD8" s="4"/>
+      <c r="ACE8" s="4"/>
+      <c r="ACF8" s="4"/>
+      <c r="ACG8" s="4"/>
+      <c r="ACH8" s="4"/>
+      <c r="ACI8" s="4"/>
+      <c r="ACJ8" s="4"/>
+      <c r="ACK8" s="4"/>
+      <c r="ACL8" s="4"/>
+      <c r="ACM8" s="4"/>
+      <c r="ACN8" s="4"/>
+      <c r="ACO8" s="4"/>
+      <c r="ACP8" s="4"/>
+      <c r="ACQ8" s="4"/>
+      <c r="ACR8" s="4"/>
+      <c r="ACS8" s="4"/>
+      <c r="ACT8" s="4"/>
+      <c r="ACU8" s="4"/>
+      <c r="ACV8" s="4"/>
+      <c r="ACW8" s="4"/>
+      <c r="ACX8" s="4"/>
+      <c r="ACY8" s="4"/>
+      <c r="ACZ8" s="4"/>
+      <c r="ADA8" s="4"/>
+      <c r="ADB8" s="4"/>
+      <c r="ADC8" s="4"/>
+      <c r="ADD8" s="4"/>
+      <c r="ADE8" s="4"/>
+      <c r="ADF8" s="4"/>
+      <c r="ADG8" s="4"/>
+      <c r="ADH8" s="4"/>
+      <c r="ADI8" s="4"/>
+      <c r="ADJ8" s="4"/>
+      <c r="ADK8" s="4"/>
+      <c r="ADL8" s="4"/>
+      <c r="ADM8" s="4"/>
+      <c r="ADN8" s="4"/>
+      <c r="ADO8" s="4"/>
+      <c r="ADP8" s="4"/>
+      <c r="ADQ8" s="4"/>
+      <c r="ADR8" s="4"/>
+      <c r="ADS8" s="4"/>
+      <c r="ADT8" s="4"/>
+      <c r="ADU8" s="4"/>
+      <c r="ADV8" s="4"/>
+      <c r="ADW8" s="4"/>
+      <c r="ADX8" s="4"/>
+      <c r="ADY8" s="4"/>
+      <c r="ADZ8" s="4"/>
+      <c r="AEA8" s="4"/>
+      <c r="AEB8" s="4"/>
+      <c r="AEC8" s="4"/>
+      <c r="AED8" s="4"/>
+      <c r="AEE8" s="4"/>
+      <c r="AEF8" s="4"/>
+      <c r="AEG8" s="4"/>
+      <c r="AEH8" s="4"/>
+      <c r="AEI8" s="4"/>
+      <c r="AEJ8" s="4"/>
+      <c r="AEK8" s="4"/>
+      <c r="AEL8" s="4"/>
+      <c r="AEM8" s="4"/>
+      <c r="AEN8" s="4"/>
+      <c r="AEO8" s="4"/>
+      <c r="AEP8" s="4"/>
+      <c r="AEQ8" s="4"/>
+      <c r="AER8" s="4"/>
+      <c r="AES8" s="4"/>
+      <c r="AET8" s="4"/>
+      <c r="AEU8" s="4"/>
+      <c r="AEV8" s="4"/>
+      <c r="AEW8" s="4"/>
+      <c r="AEX8" s="4"/>
+      <c r="AEY8" s="4"/>
+      <c r="AEZ8" s="4"/>
+      <c r="AFA8" s="4"/>
+      <c r="AFB8" s="4"/>
+      <c r="AFC8" s="4"/>
+      <c r="AFD8" s="4"/>
+      <c r="AFE8" s="4"/>
+      <c r="AFF8" s="4"/>
+      <c r="AFG8" s="4"/>
+      <c r="AFH8" s="4"/>
+      <c r="AFI8" s="4"/>
+      <c r="AFJ8" s="4"/>
+      <c r="AFK8" s="4"/>
+      <c r="AFL8" s="4"/>
+      <c r="AFM8" s="4"/>
+      <c r="AFN8" s="4"/>
+      <c r="AFO8" s="4"/>
+      <c r="AFP8" s="4"/>
+      <c r="AFQ8" s="4"/>
+      <c r="AFR8" s="4"/>
+      <c r="AFS8" s="4"/>
+      <c r="AFT8" s="4"/>
+      <c r="AFU8" s="4"/>
+      <c r="AFV8" s="4"/>
+      <c r="AFW8" s="4"/>
+      <c r="AFX8" s="4"/>
+      <c r="AFY8" s="4"/>
+      <c r="AFZ8" s="4"/>
+      <c r="AGA8" s="4"/>
+      <c r="AGB8" s="4"/>
+      <c r="AGC8" s="4"/>
+      <c r="AGD8" s="4"/>
+      <c r="AGE8" s="4"/>
+      <c r="AGF8" s="4"/>
+      <c r="AGG8" s="4"/>
+      <c r="AGH8" s="4"/>
+      <c r="AGI8" s="4"/>
+      <c r="AGJ8" s="4"/>
+      <c r="AGK8" s="4"/>
+      <c r="AGL8" s="4"/>
+      <c r="AGM8" s="4"/>
+      <c r="AGN8" s="4"/>
+      <c r="AGO8" s="4"/>
+      <c r="AGP8" s="4"/>
+      <c r="AGQ8" s="4"/>
+      <c r="AGR8" s="4"/>
+      <c r="AGS8" s="4"/>
+      <c r="AGT8" s="4"/>
+      <c r="AGU8" s="4"/>
+      <c r="AGV8" s="4"/>
+      <c r="AGW8" s="4"/>
+      <c r="AGX8" s="4"/>
+      <c r="AGY8" s="4"/>
+      <c r="AGZ8" s="4"/>
+      <c r="AHA8" s="4"/>
+      <c r="AHB8" s="4"/>
+      <c r="AHC8" s="4"/>
+      <c r="AHD8" s="4"/>
+      <c r="AHE8" s="4"/>
+      <c r="AHF8" s="4"/>
+      <c r="AHG8" s="4"/>
+      <c r="AHH8" s="4"/>
+      <c r="AHI8" s="4"/>
+      <c r="AHJ8" s="4"/>
+      <c r="AHK8" s="4"/>
+      <c r="AHL8" s="4"/>
+      <c r="AHM8" s="4"/>
+      <c r="AHN8" s="4"/>
+      <c r="AHO8" s="4"/>
+      <c r="AHP8" s="4"/>
+      <c r="AHQ8" s="4"/>
+      <c r="AHR8" s="4"/>
+      <c r="AHS8" s="4"/>
+      <c r="AHT8" s="4"/>
+      <c r="AHU8" s="4"/>
+      <c r="AHV8" s="4"/>
+      <c r="AHW8" s="4"/>
+      <c r="AHX8" s="4"/>
+      <c r="AHY8" s="4"/>
+      <c r="AHZ8" s="4"/>
+      <c r="AIA8" s="4"/>
+      <c r="AIB8" s="4"/>
+      <c r="AIC8" s="4"/>
+      <c r="AID8" s="4"/>
+      <c r="AIE8" s="4"/>
+      <c r="AIF8" s="4"/>
+      <c r="AIG8" s="4"/>
+      <c r="AIH8" s="4"/>
+      <c r="AII8" s="4"/>
+      <c r="AIJ8" s="4"/>
+      <c r="AIK8" s="4"/>
+      <c r="AIL8" s="4"/>
+      <c r="AIM8" s="4"/>
+      <c r="AIN8" s="4"/>
+      <c r="AIO8" s="4"/>
+      <c r="AIP8" s="4"/>
+      <c r="AIQ8" s="4"/>
+      <c r="AIR8" s="4"/>
+      <c r="AIS8" s="4"/>
+      <c r="AIT8" s="4"/>
+      <c r="AIU8" s="4"/>
+      <c r="AIV8" s="4"/>
+      <c r="AIW8" s="4"/>
+      <c r="AIX8" s="4"/>
+      <c r="AIY8" s="4"/>
+      <c r="AIZ8" s="4"/>
+      <c r="AJA8" s="4"/>
+      <c r="AJB8" s="4"/>
+      <c r="AJC8" s="4"/>
+      <c r="AJD8" s="4"/>
+      <c r="AJE8" s="4"/>
+      <c r="AJF8" s="4"/>
+      <c r="AJG8" s="4"/>
+      <c r="AJH8" s="4"/>
+      <c r="AJI8" s="4"/>
+      <c r="AJJ8" s="4"/>
+      <c r="AJK8" s="4"/>
+      <c r="AJL8" s="4"/>
+      <c r="AJM8" s="4"/>
+      <c r="AJN8" s="4"/>
+      <c r="AJO8" s="4"/>
+      <c r="AJP8" s="4"/>
+      <c r="AJQ8" s="4"/>
+      <c r="AJR8" s="4"/>
+      <c r="AJS8" s="4"/>
+      <c r="AJT8" s="4"/>
+      <c r="AJU8" s="4"/>
+      <c r="AJV8" s="4"/>
+      <c r="AJW8" s="4"/>
+      <c r="AJX8" s="4"/>
+      <c r="AJY8" s="4"/>
+      <c r="AJZ8" s="4"/>
+      <c r="AKA8" s="4"/>
+      <c r="AKB8" s="4"/>
+      <c r="AKC8" s="4"/>
+      <c r="AKD8" s="4"/>
+      <c r="AKE8" s="4"/>
+      <c r="AKF8" s="4"/>
+      <c r="AKG8" s="4"/>
+      <c r="AKH8" s="4"/>
+      <c r="AKI8" s="4"/>
+      <c r="AKJ8" s="4"/>
+      <c r="AKK8" s="4"/>
+      <c r="AKL8" s="4"/>
+      <c r="AKM8" s="4"/>
+      <c r="AKN8" s="4"/>
+      <c r="AKO8" s="4"/>
+      <c r="AKP8" s="4"/>
+      <c r="AKQ8" s="4"/>
+      <c r="AKR8" s="4"/>
+      <c r="AKS8" s="4"/>
+      <c r="AKT8" s="4"/>
+      <c r="AKU8" s="4"/>
+      <c r="AKV8" s="4"/>
+      <c r="AKW8" s="4"/>
+      <c r="AKX8" s="4"/>
+      <c r="AKY8" s="4"/>
+      <c r="AKZ8" s="4"/>
+      <c r="ALA8" s="4"/>
+      <c r="ALB8" s="4"/>
+      <c r="ALC8" s="4"/>
+      <c r="ALD8" s="4"/>
+      <c r="ALE8" s="4"/>
+      <c r="ALF8" s="4"/>
+      <c r="ALG8" s="4"/>
+      <c r="ALH8" s="4"/>
+      <c r="ALI8" s="4"/>
+      <c r="ALJ8" s="4"/>
+      <c r="ALK8" s="4"/>
+      <c r="ALL8" s="4"/>
+      <c r="ALM8" s="4"/>
+      <c r="ALN8" s="4"/>
+      <c r="ALO8" s="4"/>
+      <c r="ALP8" s="4"/>
+      <c r="ALQ8" s="4"/>
+      <c r="ALR8" s="4"/>
+      <c r="ALS8" s="4"/>
+      <c r="ALT8" s="4"/>
+      <c r="ALU8" s="4"/>
+      <c r="ALV8" s="4"/>
+      <c r="ALW8" s="4"/>
+      <c r="ALX8" s="4"/>
+      <c r="ALY8" s="4"/>
     </row>
-    <row r="9" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1013" ht="24">
       <c r="A9" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F9" s="11">
         <v>7</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1013" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1013">
       <c r="A10" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="11">
         <v>7</v>
@@ -7044,38 +8088,78 @@
         <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <v>1</v>
       </c>
       <c r="L10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1013" ht="36">
+      <c r="A11" s="4">
+        <v>66</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5</v>
+      </c>
+      <c r="F11" s="11">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4">
         <v>1</v>
       </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:1013" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+    <row r="12" spans="1:1013">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7083,19 +8167,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.140625" style="5"/>
-    <col min="4" max="1024" width="11.85546875" style="5"/>
-    <col min="1025" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7106,7 +8188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>46</v>
       </c>
@@ -7118,84 +8200,105 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>47</v>
       </c>
       <c r="B3" s="4">
         <f>SUMIF(logt!$G:$G,A3,logt!$F:$F)/60</f>
-        <v>0.66666666666666663</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="C3" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4">
+        <v>57</v>
+      </c>
+      <c r="B4" s="4">
+        <f>SUMIF(logt!$G:$G,A4,logt!$F:$F)/60</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="31"/>
+    <row r="5" spans="1:3" s="12" customFormat="1">
+      <c r="A5" s="31">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4">
+        <f>SUMIF(logt!$G:$G,A5,logt!$F:$F)/60</f>
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="31">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUMIF(logt!$G:$G,A6,logt!$F:$F)/60</f>
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="12" customFormat="1">
       <c r="A8" s="31"/>
       <c r="B8" s="4"/>
       <c r="C8" s="31"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -7207,30 +8310,35 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="21" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="21" customWidth="1"/>
+    <col min="3" max="4" width="13.1640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="11.85546875" style="5"/>
+    <col min="9" max="16384" width="11.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="26">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -7256,7 +8364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="23">
         <v>41938</v>
       </c>
@@ -7273,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F3" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <f t="shared" ref="F2:F6" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
         <v>27</v>
       </c>
       <c r="G2" s="21">
@@ -7283,7 +8391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="23">
         <v>41938</v>
       </c>
@@ -7310,52 +8418,140 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="16"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="23">
+        <v>41942</v>
+      </c>
+      <c r="B4" s="21">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G4" s="21">
+        <v>61</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="22"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="27">
+        <v>41943</v>
+      </c>
+      <c r="B5" s="21">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E5" s="22">
+        <v>30</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G5" s="4">
+        <v>58</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="22"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="27">
+        <v>41944</v>
+      </c>
+      <c r="B6" s="21">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G6" s="4">
+        <v>47</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+    <row r="7" spans="1:8" ht="24">
+      <c r="A7" s="23">
+        <v>41944</v>
+      </c>
+      <c r="B7" s="21">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" ref="F7" si="1">((HOUR(D7)-HOUR(C7))*60)+(MINUTE(D7)-MINUTE(C7))-E7</f>
+        <v>240</v>
+      </c>
+      <c r="G7" s="4">
+        <v>57</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="22"/>
+      <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="22"/>
+      <c r="F9" s="18"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="28"/>
       <c r="B10" s="30"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="22"/>
       <c r="F10" s="18"/>
-      <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="28"/>
       <c r="B11" s="30"/>
       <c r="C11" s="17"/>
@@ -7363,15 +8559,15 @@
       <c r="E11" s="22"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="27"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="22"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="27"/>
       <c r="B13" s="22"/>
       <c r="C13" s="17"/>
@@ -7379,7 +8575,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="27"/>
       <c r="B14" s="22"/>
       <c r="C14" s="17"/>
@@ -7387,7 +8583,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="27"/>
       <c r="B15" s="22"/>
       <c r="C15" s="17"/>
@@ -7395,25 +8591,25 @@
       <c r="E15" s="22"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="18"/>
+    <row r="18" spans="1:8" s="12" customFormat="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="16"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="27"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="27"/>
       <c r="B20" s="22"/>
       <c r="C20" s="17"/>
@@ -7421,7 +8617,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="27"/>
       <c r="B21" s="22"/>
       <c r="C21" s="17"/>
@@ -7429,7 +8625,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="27"/>
       <c r="B22" s="22"/>
       <c r="C22" s="17"/>
@@ -7437,7 +8633,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="27"/>
       <c r="B23" s="22"/>
       <c r="C23" s="17"/>
@@ -7445,7 +8641,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="27"/>
       <c r="B24" s="22"/>
       <c r="C24" s="17"/>
@@ -7453,7 +8649,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="27"/>
       <c r="B25" s="22"/>
       <c r="C25" s="17"/>
@@ -7461,7 +8657,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="27"/>
       <c r="B26" s="22"/>
       <c r="C26" s="17"/>
@@ -7469,7 +8665,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="27"/>
       <c r="B27" s="22"/>
       <c r="C27" s="17"/>
@@ -7477,7 +8673,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="27"/>
       <c r="B28" s="22"/>
       <c r="C28" s="17"/>
@@ -7485,7 +8681,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="27"/>
       <c r="B29" s="22"/>
       <c r="C29" s="17"/>
@@ -7493,7 +8689,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="27"/>
       <c r="B30" s="22"/>
       <c r="C30" s="17"/>
@@ -7501,7 +8697,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="27"/>
       <c r="B31" s="22"/>
       <c r="C31" s="17"/>
@@ -7509,7 +8705,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="27"/>
       <c r="B32" s="22"/>
       <c r="C32" s="17"/>
@@ -7517,7 +8713,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="27"/>
       <c r="B33" s="22"/>
       <c r="C33" s="17"/>
@@ -7525,7 +8721,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="27"/>
       <c r="B34" s="22"/>
       <c r="C34" s="17"/>
@@ -7533,20 +8729,17 @@
       <c r="E34" s="22"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="18"/>
-    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/tspi/ciclo-3/plan3-20105914.xlsx
+++ b/tspi/ciclo-3/plan3-20105914.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\github\PPR\tspi\ciclo-3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="33520" windowHeight="20540" tabRatio="400" activeTab="1"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="33525" windowHeight="20535" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="logt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -160,6 +165,9 @@
   <si>
     <t>Terminar de definir estrategia de desarrollo</t>
   </si>
+  <si>
+    <t>Conociendo el funcionamiento de redmine e importer.</t>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +274,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,9 +338,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -723,19 +728,19 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="7" customWidth="1"/>
     <col min="3" max="4" width="46" style="7" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="2.5" style="6" customWidth="1"/>
-    <col min="8" max="12" width="15.6640625" style="6" customWidth="1"/>
-    <col min="13" max="1013" width="11.5" style="6"/>
-    <col min="1014" max="16384" width="11.5" style="5"/>
+    <col min="5" max="6" width="15.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="6" customWidth="1"/>
+    <col min="8" max="12" width="15.7109375" style="6" customWidth="1"/>
+    <col min="13" max="1013" width="11.42578125" style="6"/>
+    <col min="1014" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1013" s="3" customFormat="1" ht="26">
+    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013" ht="36">
+    <row r="2" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>46</v>
       </c>
@@ -1808,7 +1813,7 @@
       <c r="ALX2" s="4"/>
       <c r="ALY2" s="4"/>
     </row>
-    <row r="3" spans="1:1013" ht="48">
+    <row r="3" spans="1:1013" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>47</v>
       </c>
@@ -2845,7 +2850,7 @@
       <c r="ALX3" s="4"/>
       <c r="ALY3" s="4"/>
     </row>
-    <row r="4" spans="1:1013">
+    <row r="4" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>53</v>
       </c>
@@ -3882,7 +3887,7 @@
       <c r="ALX4" s="4"/>
       <c r="ALY4" s="4"/>
     </row>
-    <row r="5" spans="1:1013" ht="24">
+    <row r="5" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>55</v>
       </c>
@@ -4919,7 +4924,7 @@
       <c r="ALX5" s="4"/>
       <c r="ALY5" s="4"/>
     </row>
-    <row r="6" spans="1:1013" ht="24">
+    <row r="6" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>57</v>
       </c>
@@ -5956,7 +5961,7 @@
       <c r="ALX6" s="4"/>
       <c r="ALY6" s="4"/>
     </row>
-    <row r="7" spans="1:1013" ht="24">
+    <row r="7" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>58</v>
       </c>
@@ -6993,7 +6998,7 @@
       <c r="ALX7" s="4"/>
       <c r="ALY7" s="4"/>
     </row>
-    <row r="8" spans="1:1013" ht="24">
+    <row r="8" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>61</v>
       </c>
@@ -8030,7 +8035,7 @@
       <c r="ALX8" s="4"/>
       <c r="ALY8" s="4"/>
     </row>
-    <row r="9" spans="1:1013" ht="24">
+    <row r="9" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>63</v>
       </c>
@@ -8065,7 +8070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1013">
+    <row r="10" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>65</v>
       </c>
@@ -8100,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1013" ht="36">
+    <row r="11" spans="1:1013" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>66</v>
       </c>
@@ -8135,7 +8140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1013">
+    <row r="12" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -8168,16 +8173,16 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="5"/>
+    <col min="1" max="1" width="3.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8188,7 +8193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>46</v>
       </c>
@@ -8200,7 +8205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>47</v>
       </c>
@@ -8212,98 +8217,108 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4">
         <f>SUMIF(logt!$G:$G,A4,logt!$F:$F)/60</f>
-        <v>4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C4" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="12" customFormat="1">
-      <c r="A5" s="31">
-        <v>58</v>
+    <row r="5" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>57</v>
       </c>
       <c r="B5" s="4">
         <f>SUMIF(logt!$G:$G,A5,logt!$F:$F)/60</f>
-        <v>1.5</v>
-      </c>
-      <c r="C5" s="31">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4">
-        <v>61</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="30">
+        <v>58</v>
       </c>
       <c r="B6" s="4">
         <f>SUMIF(logt!$G:$G,A6,logt!$F:$F)/60</f>
         <v>1.5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="30">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUMIF(logt!$G:$G,A7,logt!$F:$F)/60</f>
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="31"/>
+      <c r="C8" s="30"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C7">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -8323,22 +8338,22 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="21" customWidth="1"/>
-    <col min="3" max="4" width="13.1640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="21" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="11.83203125" style="5"/>
+    <col min="9" max="16384" width="11.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="26">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -8364,7 +8379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>41938</v>
       </c>
@@ -8387,11 +8402,11 @@
       <c r="G2" s="21">
         <v>46</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>41938</v>
       </c>
@@ -8414,16 +8429,16 @@
       <c r="G3" s="21">
         <v>47</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>41942</v>
       </c>
       <c r="B4" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="14">
         <v>0.91666666666666663</v>
@@ -8441,11 +8456,11 @@
       <c r="G4" s="21">
         <v>61</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="27">
         <v>41943</v>
       </c>
@@ -8472,7 +8487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <v>41944</v>
       </c>
@@ -8499,7 +8514,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>41944</v>
       </c>
@@ -8516,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" ref="F7" si="1">((HOUR(D7)-HOUR(C7))*60)+(MINUTE(D7)-MINUTE(C7))-E7</f>
+        <f t="shared" ref="F7:F9" si="1">((HOUR(D7)-HOUR(C7))*60)+(MINUTE(D7)-MINUTE(C7))-E7</f>
         <v>240</v>
       </c>
       <c r="G7" s="4">
@@ -8526,40 +8541,75 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="22"/>
-      <c r="H8" s="9"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="28">
+        <v>41943</v>
+      </c>
+      <c r="B8" s="22">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="G8" s="21">
+        <v>53</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="18"/>
-      <c r="H9" s="9"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>41920</v>
+      </c>
+      <c r="B9" s="21">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.97361111111111109</v>
+      </c>
+      <c r="E9" s="21">
+        <v>12</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="22"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
-      <c r="B11" s="30"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="22"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="22"/>
       <c r="C12" s="17"/>
@@ -8567,7 +8617,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="22"/>
       <c r="C13" s="17"/>
@@ -8575,7 +8625,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="22"/>
       <c r="C14" s="17"/>
@@ -8583,7 +8633,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="22"/>
       <c r="C15" s="17"/>
@@ -8591,7 +8641,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1">
+    <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
@@ -8601,7 +8651,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="22"/>
       <c r="C19" s="17"/>
@@ -8609,7 +8659,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="22"/>
       <c r="C20" s="17"/>
@@ -8617,7 +8667,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="22"/>
       <c r="C21" s="17"/>
@@ -8625,7 +8675,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="22"/>
       <c r="C22" s="17"/>
@@ -8633,7 +8683,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="22"/>
       <c r="C23" s="17"/>
@@ -8641,7 +8691,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="22"/>
       <c r="C24" s="17"/>
@@ -8649,7 +8699,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="22"/>
       <c r="C25" s="17"/>
@@ -8657,7 +8707,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="22"/>
       <c r="C26" s="17"/>
@@ -8665,7 +8715,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="22"/>
       <c r="C27" s="17"/>
@@ -8673,7 +8723,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="22"/>
       <c r="C28" s="17"/>
@@ -8681,7 +8731,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="22"/>
       <c r="C29" s="17"/>
@@ -8689,7 +8739,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="22"/>
       <c r="C30" s="17"/>
@@ -8697,7 +8747,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="22"/>
       <c r="C31" s="17"/>
@@ -8705,7 +8755,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="22"/>
       <c r="C32" s="17"/>
@@ -8713,7 +8763,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="22"/>
       <c r="C33" s="17"/>
@@ -8721,7 +8771,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="22"/>
       <c r="C34" s="17"/>
